--- a/simulation_data/iterative_algorithm/i_error_level_13_percent_water_1.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_13_percent_water_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.55418071681257</v>
+        <v>89.4209069484256</v>
       </c>
       <c r="D2" t="n">
-        <v>15.62420850847913</v>
+        <v>12.86094264223045</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.92560447808525</v>
+        <v>87.44980425087617</v>
       </c>
       <c r="D3" t="n">
-        <v>14.18378252570592</v>
+        <v>14.10430408318395</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.36077217624128</v>
+        <v>87.96417096166051</v>
       </c>
       <c r="D4" t="n">
-        <v>15.6928863434879</v>
+        <v>14.14433172123845</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>84.94286537378267</v>
+        <v>89.86029134085818</v>
       </c>
       <c r="D5" t="n">
-        <v>14.48530919564419</v>
+        <v>13.65643401121092</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.40163296958769</v>
+        <v>87.27647334653103</v>
       </c>
       <c r="D6" t="n">
-        <v>13.15217795590583</v>
+        <v>12.88874845591093</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>82.93504606016855</v>
+        <v>84.87684703882404</v>
       </c>
       <c r="D7" t="n">
-        <v>13.35162364722156</v>
+        <v>13.78264334443018</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>82.84295483045358</v>
+        <v>86.92868478360019</v>
       </c>
       <c r="D8" t="n">
-        <v>14.00190100095089</v>
+        <v>13.56875398779931</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.55495391207506</v>
+        <v>81.54115911641168</v>
       </c>
       <c r="D9" t="n">
-        <v>14.95577286974598</v>
+        <v>13.53651950555241</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.8372554782073</v>
+        <v>81.97817051906266</v>
       </c>
       <c r="D10" t="n">
-        <v>15.11809422524155</v>
+        <v>11.52686149060241</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.53163887068683</v>
+        <v>81.28022012715437</v>
       </c>
       <c r="D11" t="n">
-        <v>13.6199748163721</v>
+        <v>13.52439464959034</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>78.74523129200128</v>
+        <v>80.2475665651306</v>
       </c>
       <c r="D12" t="n">
-        <v>15.02875619850493</v>
+        <v>14.86531648331831</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.30106773327702</v>
+        <v>77.27551627733118</v>
       </c>
       <c r="D13" t="n">
-        <v>15.42391294728944</v>
+        <v>13.16105852731552</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>79.10799971634704</v>
+        <v>77.81737518114227</v>
       </c>
       <c r="D14" t="n">
-        <v>14.03401154907549</v>
+        <v>13.02555968120994</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>75.98237086518685</v>
+        <v>75.1212552472273</v>
       </c>
       <c r="D15" t="n">
-        <v>15.27677450961621</v>
+        <v>14.81355596902206</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.27381229646664</v>
+        <v>74.56342314586584</v>
       </c>
       <c r="D16" t="n">
-        <v>13.57968985839188</v>
+        <v>12.63002199782698</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>76.51394090759263</v>
+        <v>74.66224609803776</v>
       </c>
       <c r="D17" t="n">
-        <v>14.0283766970908</v>
+        <v>13.07617120412444</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>75.62823533969275</v>
+        <v>73.43346477804617</v>
       </c>
       <c r="D18" t="n">
-        <v>14.81791712611519</v>
+        <v>12.18541232166435</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>70.72136721795178</v>
+        <v>72.69734513726587</v>
       </c>
       <c r="D19" t="n">
-        <v>14.56995903028347</v>
+        <v>14.2621360839232</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>70.8226276915446</v>
+        <v>72.54083685384306</v>
       </c>
       <c r="D20" t="n">
-        <v>15.12281420388651</v>
+        <v>13.74251603076594</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>69.53658142497295</v>
+        <v>69.38710166467285</v>
       </c>
       <c r="D21" t="n">
-        <v>14.11621940843074</v>
+        <v>14.63488513098981</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>71.96710423874514</v>
+        <v>69.14488470381644</v>
       </c>
       <c r="D22" t="n">
-        <v>13.73373562779404</v>
+        <v>13.42673392298665</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.54970604107109</v>
+        <v>66.83267195346299</v>
       </c>
       <c r="D23" t="n">
-        <v>15.68139989611067</v>
+        <v>12.83872262145486</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>70.00436826255624</v>
+        <v>67.17622905245661</v>
       </c>
       <c r="D24" t="n">
-        <v>15.25956609593435</v>
+        <v>14.990959717608</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.33048732376176</v>
+        <v>67.4033899388798</v>
       </c>
       <c r="D25" t="n">
-        <v>12.34516143525243</v>
+        <v>14.37057764481547</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>64.71455136638463</v>
+        <v>62.84757303398314</v>
       </c>
       <c r="D26" t="n">
-        <v>13.59375960979782</v>
+        <v>15.24955095117341</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>62.76926630481498</v>
+        <v>65.82343872100931</v>
       </c>
       <c r="D27" t="n">
-        <v>12.10033596679916</v>
+        <v>13.44144430106802</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>60.37825139916092</v>
+        <v>63.16873066744278</v>
       </c>
       <c r="D28" t="n">
-        <v>14.5256065354853</v>
+        <v>12.64852617549859</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.45181056066673</v>
+        <v>62.84651402058944</v>
       </c>
       <c r="D29" t="n">
-        <v>13.36612279985098</v>
+        <v>12.99978562275001</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>63.35605473785029</v>
+        <v>63.46448626287798</v>
       </c>
       <c r="D30" t="n">
-        <v>15.87883114729535</v>
+        <v>13.74167042165253</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.62167583748461</v>
+        <v>59.35738108474516</v>
       </c>
       <c r="D31" t="n">
-        <v>14.56821304862815</v>
+        <v>15.24741037421904</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>57.68573477245402</v>
+        <v>60.30713031127315</v>
       </c>
       <c r="D32" t="n">
-        <v>12.93557150138427</v>
+        <v>12.70897761591335</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>60.38070246681602</v>
+        <v>59.26004853185691</v>
       </c>
       <c r="D33" t="n">
-        <v>14.09814964374317</v>
+        <v>13.60035468642571</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>55.75215889349695</v>
+        <v>57.49803378784807</v>
       </c>
       <c r="D34" t="n">
-        <v>13.84058670198048</v>
+        <v>13.72813392879493</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.7058130100963</v>
+        <v>55.22659876402251</v>
       </c>
       <c r="D35" t="n">
-        <v>12.74333936791414</v>
+        <v>12.76902483819683</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>54.57623312286191</v>
+        <v>53.55117599830721</v>
       </c>
       <c r="D36" t="n">
-        <v>14.30974906513726</v>
+        <v>13.70177203666508</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.29322011897704</v>
+        <v>52.77368178414773</v>
       </c>
       <c r="D37" t="n">
-        <v>13.79093157156426</v>
+        <v>15.79719309632455</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.72172709742048</v>
+        <v>51.77354261462702</v>
       </c>
       <c r="D38" t="n">
-        <v>14.85262101501887</v>
+        <v>16.63490460937092</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.84961326700731</v>
+        <v>54.57937977982969</v>
       </c>
       <c r="D39" t="n">
-        <v>13.86949037447412</v>
+        <v>14.74430954707066</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>50.63598757797298</v>
+        <v>51.25480916805252</v>
       </c>
       <c r="D40" t="n">
-        <v>14.23098582882693</v>
+        <v>15.66095499674656</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>49.12190815212436</v>
+        <v>51.89636206459205</v>
       </c>
       <c r="D41" t="n">
-        <v>12.80486842162009</v>
+        <v>13.96796912690798</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>48.38331006342787</v>
+        <v>48.54756120147395</v>
       </c>
       <c r="D42" t="n">
-        <v>16.41476352165537</v>
+        <v>16.02350548456458</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>52.81764126900485</v>
+        <v>48.29423808270128</v>
       </c>
       <c r="D43" t="n">
-        <v>13.52728797363266</v>
+        <v>12.57253658703856</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>46.75099582520034</v>
+        <v>47.56637296053449</v>
       </c>
       <c r="D44" t="n">
-        <v>14.64882626936494</v>
+        <v>13.57541423107987</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.94513557176573</v>
+        <v>45.37803553398194</v>
       </c>
       <c r="D45" t="n">
-        <v>13.86965536512639</v>
+        <v>14.17960401723097</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>44.96044967960896</v>
+        <v>42.20276158905703</v>
       </c>
       <c r="D46" t="n">
-        <v>13.29336507943097</v>
+        <v>14.21415153344951</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>48.03741041255959</v>
+        <v>44.06102289528693</v>
       </c>
       <c r="D47" t="n">
-        <v>13.44375086648788</v>
+        <v>16.12407397114941</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>42.76730648750603</v>
+        <v>44.22194527151382</v>
       </c>
       <c r="D48" t="n">
-        <v>14.50351298745597</v>
+        <v>16.31870597892801</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>46.33691630257375</v>
+        <v>43.8846768569207</v>
       </c>
       <c r="D49" t="n">
-        <v>14.68835147981704</v>
+        <v>15.9035965435111</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>39.77272226004877</v>
+        <v>41.6254118870223</v>
       </c>
       <c r="D50" t="n">
-        <v>14.55076429207013</v>
+        <v>15.98331673537199</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>43.59061472450415</v>
+        <v>41.40218858180298</v>
       </c>
       <c r="D51" t="n">
-        <v>14.95813594661759</v>
+        <v>15.12333904176692</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.51716041805116</v>
+        <v>39.02733440375988</v>
       </c>
       <c r="D52" t="n">
-        <v>14.85251579612119</v>
+        <v>14.96336400966404</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.1354858933381</v>
+        <v>39.16726847244575</v>
       </c>
       <c r="D53" t="n">
-        <v>13.14944406181525</v>
+        <v>13.76945822395545</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.97453909322707</v>
+        <v>35.28699443339199</v>
       </c>
       <c r="D54" t="n">
-        <v>13.27452841621318</v>
+        <v>13.68806310166264</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.20878195828767</v>
+        <v>36.40467186181154</v>
       </c>
       <c r="D55" t="n">
-        <v>16.41265511682542</v>
+        <v>14.47499868475036</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.13380549296305</v>
+        <v>37.07962904299459</v>
       </c>
       <c r="D56" t="n">
-        <v>11.79392826319032</v>
+        <v>14.57023793855578</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.06711437498759</v>
+        <v>34.38299546778533</v>
       </c>
       <c r="D57" t="n">
-        <v>15.86139362415381</v>
+        <v>14.17269118807339</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>30.38037097303589</v>
+        <v>36.86858807539974</v>
       </c>
       <c r="D58" t="n">
-        <v>13.70176085620858</v>
+        <v>15.17671448527427</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.70835255854529</v>
+        <v>32.13674915421338</v>
       </c>
       <c r="D59" t="n">
-        <v>14.37223394272895</v>
+        <v>15.18378804088724</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>29.98221025822478</v>
+        <v>30.10843230691296</v>
       </c>
       <c r="D60" t="n">
-        <v>14.29875294309769</v>
+        <v>15.62109232376406</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.84812476705723</v>
+        <v>31.12163670560736</v>
       </c>
       <c r="D61" t="n">
-        <v>13.45506813831238</v>
+        <v>15.79878159439223</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>32.10496479049518</v>
+        <v>30.43521618641964</v>
       </c>
       <c r="D62" t="n">
-        <v>12.94371820727657</v>
+        <v>12.74451895323443</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>31.24082400373862</v>
+        <v>31.6271635217803</v>
       </c>
       <c r="D63" t="n">
-        <v>12.8162993923486</v>
+        <v>12.47063663121535</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.40999062811471</v>
+        <v>29.39534687212415</v>
       </c>
       <c r="D64" t="n">
-        <v>13.50539780752739</v>
+        <v>14.83270525366087</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>30.40766596885808</v>
+        <v>27.67935291809351</v>
       </c>
       <c r="D65" t="n">
-        <v>14.67924764727061</v>
+        <v>14.37060248281376</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>24.35392422890441</v>
+        <v>23.73332888086248</v>
       </c>
       <c r="D66" t="n">
-        <v>15.55089048176206</v>
+        <v>13.44354997089578</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.42297579838477</v>
+        <v>22.20569516696979</v>
       </c>
       <c r="D67" t="n">
-        <v>13.81476455731215</v>
+        <v>15.19671556465489</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.59152345064756</v>
+        <v>22.02581516184791</v>
       </c>
       <c r="D68" t="n">
-        <v>14.14973081530549</v>
+        <v>15.50433791333104</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>20.59403971444247</v>
+        <v>23.0965032044484</v>
       </c>
       <c r="D69" t="n">
-        <v>15.09082514858767</v>
+        <v>14.95932170978263</v>
       </c>
     </row>
   </sheetData>
